--- a/Materialliste_RC_Plane_Setup_Wizzard.xlsx
+++ b/Materialliste_RC_Plane_Setup_Wizzard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hauch\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hauch\Documents\GitHub\RC-Plane-Setup-Wizzard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Materialliste für RC Plane Setup Wizzard</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Mail an: marcel.bardehle@gmx.de</t>
   </si>
   <si>
-    <t>Gesamtkosten Elektronik (ohne Versandkosten)</t>
-  </si>
-  <si>
     <t>Kosten für 3D Druck Filament (ca. 500Gramm)</t>
   </si>
   <si>
@@ -105,6 +102,66 @@
   </si>
   <si>
     <t>Links</t>
+  </si>
+  <si>
+    <t>https://www.bauhaus.info/metallprofile-kunststoffprofile/kantoflex-rechteckrohr/p/10521929</t>
+  </si>
+  <si>
+    <t>Alu-Profil Vierkantprofil 12,5×7,5mm (Bauhaus oder Globus)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Haobase-Edelstahl-Hexagon-Schrauben-Schraube/dp/B07RBTGT7B/ref=sr_1_8?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Schraubenset+M2.5&amp;qid=1591680781&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>Schraubenset Linsenskopf M2.5 (M2.5 x 5 - M2.5x16)  z.B. von Amazon</t>
+  </si>
+  <si>
+    <t>M2.5 x 6 Senkkopfschraube Neigungssensor Boden</t>
+  </si>
+  <si>
+    <t>Messing Einpressmuttern M2.5 x 5</t>
+  </si>
+  <si>
+    <t>Waagen</t>
+  </si>
+  <si>
+    <t>Neigungssensoren</t>
+  </si>
+  <si>
+    <t>M5x20 Senkkopfschrauben</t>
+  </si>
+  <si>
+    <t>M4x16 Zylinderkopfschraube</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/3V-Laser-Diode-5mW-650nm-NIR-nahes-Infrarot-ESP8266-Arduino-Raspberry-Pi/283491860699?hash=item42016e80db:g:OygAAOSw~kBc49hy</t>
+  </si>
+  <si>
+    <t>Laser Diode 3V 5mW 650nm rot (6mm dick)</t>
+  </si>
+  <si>
+    <t>Gehäuse</t>
+  </si>
+  <si>
+    <t>Schrauben</t>
+  </si>
+  <si>
+    <t>M2.5 x4  Zylinderkopfschraube Neigungssensoren Deckel und Platine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2.5x12 Zylinderkopfschraube </t>
+  </si>
+  <si>
+    <t>M2.5x5 Zylinderkopfschraube für Platine</t>
+  </si>
+  <si>
+    <t>Größe</t>
+  </si>
+  <si>
+    <t>M2.5 x 16 Zylinderkopfschraube Verschraubung Neigungssensor mit EWD-Halter</t>
+  </si>
+  <si>
+    <t>Schrauben Sonstige (M2.5x6 Senkkopf, M5x20 Senkkopf, M4x16 Zylinderkopf)</t>
   </si>
 </sst>
 </file>
@@ -114,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +244,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,21 +291,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -253,7 +303,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -282,16 +332,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -574,28 +640,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.08984375" customWidth="1"/>
-    <col min="2" max="2" width="54.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="139.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -605,13 +671,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -727,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7">
         <v>1.45</v>
@@ -737,7 +803,7 @@
         <v>1.45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -777,33 +843,184 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="16">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="18">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13:D16" si="1">C13*A13</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="16">
+        <v>1</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1.66</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" si="1"/>
+        <v>1.66</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="16">
+        <v>1</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="23">
+        <v>11.9</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" si="1"/>
+        <v>11.9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13">
-        <f>SUM(D4:D12)</f>
-        <v>67.95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="14" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18">
-        <f>SUM(D13:D14)</f>
-        <v>77.95</v>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14">
+        <f>SUM(D4:D17)</f>
+        <v>98.61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>8</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>4</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>4</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>4</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>6</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>6</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>4</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>4</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -819,8 +1036,11 @@
     <hyperlink ref="E9" r:id="rId6"/>
     <hyperlink ref="E11" r:id="rId7"/>
     <hyperlink ref="E10" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9"/>
+    <hyperlink ref="E15" r:id="rId10"/>
+    <hyperlink ref="E14" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Materialliste_RC_Plane_Setup_Wizzard.xlsx
+++ b/Materialliste_RC_Plane_Setup_Wizzard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Materialliste für RC Plane Setup Wizzard</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Schrauben Sonstige (M2.5x6 Senkkopf, M5x20 Senkkopf, M4x16 Zylinderkopf)</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/i/122747735065?chn=ps&amp;norover=1&amp;mkevt=1&amp;mkrid=707-134425-41852-0&amp;mkcid=2&amp;itemid=122747735065&amp;targetid=897014132573&amp;device=c&amp;mktype=pla&amp;googleloc=9044291&amp;poi=&amp;campaignid=10203814491&amp;mkgroupid=101937407037&amp;rlsatarget=aud-558316660504:pla-897014132573&amp;abcId=1145989&amp;merchantid=109712500&amp;gclid=Cj0KCQjww_f2BRC-ARIsAP3zarHeG1Bk7C-z0EMcodcHJNTjn-AXqqo2FjUozV82lbvROxMPzZKNJW4aAssqEALw_wcB</t>
+  </si>
+  <si>
+    <t>Set Messing Einpressmuttern M2.5 (100 Stück)</t>
   </si>
 </sst>
 </file>
@@ -335,9 +341,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -358,6 +361,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -640,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,12 +662,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -843,17 +849,17 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>2</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>2.0499999999999998</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" ref="D13:D16" si="1">C13*A13</f>
+        <f t="shared" ref="D13:D17" si="1">C13*A13</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -861,16 +867,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>1</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>1.66</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <f t="shared" si="1"/>
         <v>1.66</v>
       </c>
@@ -879,16 +885,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>1</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>11.9</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <f t="shared" si="1"/>
         <v>11.9</v>
       </c>
@@ -897,101 +903,111 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>1</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>3</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="24" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
+        <v>1</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="17">
+        <v>3.35</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="1"/>
+        <v>3.35</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25">
+      <c r="C18" s="23"/>
+      <c r="D18" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="12" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14">
-        <f>SUM(D4:D17)</f>
-        <v>98.61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="20" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14">
+        <f>SUM(D4:D18)</f>
+        <v>101.96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
+    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
         <v>8</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
-        <v>4</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>4</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>4</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>4</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
+    <row r="32" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="21" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
-        <v>6</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -999,20 +1015,20 @@
         <v>6</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>6</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="22" t="s">
+    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="21" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
-        <v>4</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1020,6 +1036,14 @@
         <v>4</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>4</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1039,8 +1063,9 @@
     <hyperlink ref="E13" r:id="rId9"/>
     <hyperlink ref="E15" r:id="rId10"/>
     <hyperlink ref="E14" r:id="rId11"/>
+    <hyperlink ref="E17" r:id="rId12" display="https://www.ebay.de/i/122747735065?chn=ps&amp;norover=1&amp;mkevt=1&amp;mkrid=707-134425-41852-0&amp;mkcid=2&amp;itemid=122747735065&amp;targetid=897014132573&amp;device=c&amp;mktype=pla&amp;googleloc=9044291&amp;poi=&amp;campaignid=10203814491&amp;mkgroupid=101937407037&amp;rlsatarget=aud-558316660504:pla-897014132573&amp;abcId=1145989&amp;merchantid=109712500&amp;gclid=Cj0KCQjww_f2BRC-ARIsAP3zarHeG1Bk7C-z0EMcodcHJNTjn-AXqqo2FjUozV82lbvROxMPzZKNJW4aAssqEALw_wcB"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Materialliste_RC_Plane_Setup_Wizzard.xlsx
+++ b/Materialliste_RC_Plane_Setup_Wizzard.xlsx
@@ -164,10 +164,10 @@
     <t>Schrauben Sonstige (M2.5x6 Senkkopf, M5x20 Senkkopf, M4x16 Zylinderkopf)</t>
   </si>
   <si>
-    <t>https://www.ebay.de/i/122747735065?chn=ps&amp;norover=1&amp;mkevt=1&amp;mkrid=707-134425-41852-0&amp;mkcid=2&amp;itemid=122747735065&amp;targetid=897014132573&amp;device=c&amp;mktype=pla&amp;googleloc=9044291&amp;poi=&amp;campaignid=10203814491&amp;mkgroupid=101937407037&amp;rlsatarget=aud-558316660504:pla-897014132573&amp;abcId=1145989&amp;merchantid=109712500&amp;gclid=Cj0KCQjww_f2BRC-ARIsAP3zarHeG1Bk7C-z0EMcodcHJNTjn-AXqqo2FjUozV82lbvROxMPzZKNJW4aAssqEALw_wcB</t>
-  </si>
-  <si>
-    <t>Set Messing Einpressmuttern M2.5 (100 Stück)</t>
+    <t>https://www.amazon.de/gp/product/B07SYP6PRJ/ref=ppx_yo_dt_b_asin_title_o09_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Set Messing Einpressmuttern M2.5 x 4 x 3.5 (100 Stück)</t>
   </si>
 </sst>
 </file>
@@ -649,7 +649,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -925,11 +925,11 @@
         <v>47</v>
       </c>
       <c r="C17" s="17">
-        <v>3.35</v>
+        <v>7.49</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" si="1"/>
-        <v>3.35</v>
+        <v>7.49</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>46</v>
@@ -952,7 +952,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14">
         <f>SUM(D4:D18)</f>
-        <v>101.96</v>
+        <v>106.1</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
@@ -1063,7 +1063,7 @@
     <hyperlink ref="E13" r:id="rId9"/>
     <hyperlink ref="E15" r:id="rId10"/>
     <hyperlink ref="E14" r:id="rId11"/>
-    <hyperlink ref="E17" r:id="rId12" display="https://www.ebay.de/i/122747735065?chn=ps&amp;norover=1&amp;mkevt=1&amp;mkrid=707-134425-41852-0&amp;mkcid=2&amp;itemid=122747735065&amp;targetid=897014132573&amp;device=c&amp;mktype=pla&amp;googleloc=9044291&amp;poi=&amp;campaignid=10203814491&amp;mkgroupid=101937407037&amp;rlsatarget=aud-558316660504:pla-897014132573&amp;abcId=1145989&amp;merchantid=109712500&amp;gclid=Cj0KCQjww_f2BRC-ARIsAP3zarHeG1Bk7C-z0EMcodcHJNTjn-AXqqo2FjUozV82lbvROxMPzZKNJW4aAssqEALw_wcB"/>
+    <hyperlink ref="E17" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>

--- a/Materialliste_RC_Plane_Setup_Wizzard.xlsx
+++ b/Materialliste_RC_Plane_Setup_Wizzard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Materialliste für RC Plane Setup Wizzard</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>Set Messing Einpressmuttern M2.5 x 4 x 3.5 (100 Stück)</t>
+  </si>
+  <si>
+    <t>Widerstand 10k Ohm</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/widerstand-kohleschicht-10-kohm-0207-250-mw-5-k-o-rd14jn103t52-p237396.html?&amp;trstct=pol_0&amp;nbc=1</t>
+  </si>
+  <si>
+    <t>Magnet 10 x 2 mm Rund oder Eckig</t>
+  </si>
+  <si>
+    <t>Ebay/Amazon/Hobbyking</t>
   </si>
 </sst>
 </file>
@@ -177,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +270,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -309,7 +327,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -364,6 +382,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -646,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,7 +707,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -698,7 +717,7 @@
       </c>
       <c r="D4" s="8">
         <f>C4*A4</f>
-        <v>3.9</v>
+        <v>1.95</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -706,295 +725,315 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="7">
-        <v>0.95</v>
+        <v>0.08</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D5:D12" si="0">C5*A5</f>
-        <v>2.8499999999999996</v>
+        <f>C5*A5</f>
+        <v>0.08</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" ref="D6:D13" si="0">C6*A6</f>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <v>9.5</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="7">
         <v>0.25</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="7">
         <v>0.42</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="7">
         <v>10.99</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>10.99</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <v>1.45</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <v>4.3899999999999997</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>13.169999999999998</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <v>15</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15">
-        <v>2</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="17">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="D13" s="8">
-        <f t="shared" ref="D13:D17" si="1">C13*A13</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="17">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" ref="D14:D19" si="1">C14*A14</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C15" s="17">
         <v>1.66</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D15" s="18">
         <f t="shared" si="1"/>
         <v>1.66</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C16" s="22">
         <v>11.9</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D16" s="18">
         <f t="shared" si="1"/>
         <v>11.9</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="15">
-        <v>1</v>
-      </c>
-      <c r="B16" s="16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
+        <v>1</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C17" s="17">
         <v>3</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D17" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="15">
-        <v>1</v>
-      </c>
-      <c r="B17" s="16" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
+        <v>1</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C18" s="17">
         <v>7.49</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D18" s="18">
         <f t="shared" si="1"/>
         <v>7.49</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="23" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>1</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24">
+      <c r="C20" s="23"/>
+      <c r="D20" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="12" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14">
-        <f>SUM(D4:D18)</f>
-        <v>106.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="19" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="14">
+        <f>SUM(D4:D20)</f>
+        <v>105.22999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
+    <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="20" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
-        <v>8</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
-        <v>4</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1002,48 +1041,64 @@
         <v>4</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>4</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>4</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="21" t="s">
+    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
         <v>6</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B35" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
         <v>6</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B36" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="21" t="s">
+    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
         <v>4</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B40" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
         <v>4</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B41" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1053,19 +1108,20 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E7" r:id="rId4"/>
-    <hyperlink ref="E8" r:id="rId5"/>
-    <hyperlink ref="E9" r:id="rId6"/>
-    <hyperlink ref="E11" r:id="rId7"/>
-    <hyperlink ref="E10" r:id="rId8"/>
-    <hyperlink ref="E13" r:id="rId9"/>
-    <hyperlink ref="E15" r:id="rId10"/>
-    <hyperlink ref="E14" r:id="rId11"/>
-    <hyperlink ref="E17" r:id="rId12"/>
+    <hyperlink ref="E6" r:id="rId2"/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E9" r:id="rId5"/>
+    <hyperlink ref="E10" r:id="rId6"/>
+    <hyperlink ref="E12" r:id="rId7"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="E14" r:id="rId9"/>
+    <hyperlink ref="E16" r:id="rId10"/>
+    <hyperlink ref="E15" r:id="rId11"/>
+    <hyperlink ref="E18" r:id="rId12"/>
+    <hyperlink ref="E5" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>